--- a/data/ablation.xlsx
+++ b/data/ablation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22980" windowHeight="12975"/>
+    <workbookView windowWidth="26880" windowHeight="12975"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="19">
   <si>
     <t>模型配置</t>
   </si>
@@ -1248,6 +1248,11 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{338e99e5-f120-462f-b9c3-1fbe3a81dfc7}"/>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:noFill/>
@@ -1307,8 +1312,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0583780951133237"/>
-          <c:y val="0.14625529910504"/>
+          <c:x val="0.0676025917926566"/>
+          <c:y val="0.142256365487338"/>
           <c:w val="0.912799685575789"/>
           <c:h val="0.737494112105511"/>
         </c:manualLayout>
@@ -1698,7 +1703,14 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.661406358783941"/>
+          <c:y val="0.0243386243386243"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1731,6 +1743,11 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{32790b98-2c72-4fff-85b0-1721ff568868}"/>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:noFill/>
@@ -2204,6 +2221,11 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{2dbb81c8-6cb4-4105-a099-58e835ebeb39}"/>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:noFill/>
@@ -2677,6 +2699,489 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{48a978d3-34ef-4fbb-ab3c-6edda12a899e}"/>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN" sz="900">
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mj-ea"/>
+          <a:ea typeface="+mj-ea"/>
+          <a:cs typeface="+mj-ea"/>
+          <a:sym typeface="+mj-ea"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MAE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF">
+                <a:lumMod val="75000"/>
+              </a:sysClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1" forceAA="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="zh-CN" sz="600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mj-ea"/>
+                    <a:ea typeface="+mj-ea"/>
+                    <a:cs typeface="+mj-ea"/>
+                    <a:sym typeface="+mj-ea"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$L$34:$L$38</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>变体1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>变体2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>变体3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>变体4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>本文模型</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$34:$M$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>23.89</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.53</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.97</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.84</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.56</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MAPE(%)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:sysClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1" forceAA="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="zh-CN" sz="600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mj-ea"/>
+                    <a:ea typeface="+mj-ea"/>
+                    <a:cs typeface="+mj-ea"/>
+                    <a:sym typeface="+mj-ea"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$L$34:$L$38</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>变体1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>变体2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>变体3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>变体4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>本文模型</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$34:$N$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9.87</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.96</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.42</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="260"/>
+        <c:overlap val="-32"/>
+        <c:axId val="788219801"/>
+        <c:axId val="56214108"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="788219801"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1" forceAA="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mj-ea"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-ea"/>
+                <a:sym typeface="+mj-ea"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="56214108"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="56214108"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1" forceAA="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mj-ea"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-ea"/>
+                <a:sym typeface="+mj-ea"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="788219801"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1" forceAA="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-ea"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-ea"/>
+              <a:sym typeface="+mj-ea"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{c0447b68-9653-48ce-aeee-76f4bd1f8186}"/>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:noFill/>
@@ -2874,6 +3379,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="10002">
   <cs:axisTitle>
@@ -4914,20 +5459,530 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="10002">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+      <a:effectLst/>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="90200"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2540</xdr:colOff>
+      <xdr:colOff>5715</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>671830</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>73025</xdr:rowOff>
+      <xdr:colOff>684530</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>140335</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4935,8 +5990,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2540" y="2355850"/>
-        <a:ext cx="2726690" cy="1831975"/>
+        <a:off x="5715" y="2355850"/>
+        <a:ext cx="2736215" cy="1727835"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4949,15 +6004,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>438785</xdr:colOff>
+      <xdr:colOff>237490</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>8890</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>537845</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>230505</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>46355</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4965,8 +6020,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3181985" y="2237740"/>
-        <a:ext cx="3528060" cy="2381885"/>
+        <a:off x="2980690" y="2390775"/>
+        <a:ext cx="2736215" cy="1770380"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4979,15 +6034,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>81280</xdr:colOff>
+      <xdr:colOff>77470</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>60325</xdr:rowOff>
+      <xdr:rowOff>56515</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>498475</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>105410</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>62230</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4995,8 +6050,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6939280" y="2460625"/>
-        <a:ext cx="3846195" cy="2445385"/>
+        <a:off x="6935470" y="2456815"/>
+        <a:ext cx="2727960" cy="1829435"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5009,15 +6064,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>105410</xdr:colOff>
+      <xdr:colOff>102235</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>81280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>130810</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>81280</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5025,12 +6080,42 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="11764010" y="2310130"/>
-        <a:ext cx="4826000" cy="2743200"/>
+        <a:off x="11760835" y="2310130"/>
+        <a:ext cx="2724785" cy="1757045"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>568960</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>125095</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>549910</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>167005</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="图表 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="6055360" y="6640195"/>
+        <a:ext cx="2724150" cy="1756410"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6262,13 +7347,257 @@
 </a:themeOverride>
 </file>
 
+<file path=xl/theme/themeOverride5.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="WPS">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4874CB"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="EE822F"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="F2BA02"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="75BD42"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="30C0B4"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="E54C5E"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0026E5"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="7E1FAD"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="WPS">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="宋体"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="WPS">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumOff val="17500"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="2700000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:hueOff val="-2520000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="2700000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:hueOff val="-4200000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="2700000" scaled="1"/>
+        </a:gradFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="101600" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:schemeClr val="phClr">
+              <a:alpha val="60000"/>
+            </a:schemeClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:reflection stA="50000" endA="300" endPos="40000" dist="25400" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+        </a:effectLst>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="E6" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6787,6 +8116,69 @@
       </c>
       <c r="R13">
         <v>10.12</v>
+      </c>
+    </row>
+    <row r="33" spans="12:14">
+      <c r="M33" t="s">
+        <v>2</v>
+      </c>
+      <c r="N33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="12:14">
+      <c r="L34" t="s">
+        <v>14</v>
+      </c>
+      <c r="M34">
+        <v>23.89</v>
+      </c>
+      <c r="N34">
+        <v>9.87</v>
+      </c>
+    </row>
+    <row r="35" spans="12:14">
+      <c r="L35" t="s">
+        <v>15</v>
+      </c>
+      <c r="M35">
+        <v>24.53</v>
+      </c>
+      <c r="N35">
+        <v>10.32</v>
+      </c>
+    </row>
+    <row r="36" spans="12:14">
+      <c r="L36" t="s">
+        <v>16</v>
+      </c>
+      <c r="M36">
+        <v>22.97</v>
+      </c>
+      <c r="N36">
+        <v>9.25</v>
+      </c>
+    </row>
+    <row r="37" spans="12:14">
+      <c r="L37" t="s">
+        <v>17</v>
+      </c>
+      <c r="M37">
+        <v>21.84</v>
+      </c>
+      <c r="N37">
+        <v>8.96</v>
+      </c>
+    </row>
+    <row r="38" spans="12:14">
+      <c r="L38" t="s">
+        <v>18</v>
+      </c>
+      <c r="M38">
+        <v>20.56</v>
+      </c>
+      <c r="N38">
+        <v>8.42</v>
       </c>
     </row>
   </sheetData>

--- a/data/ablation.xlsx
+++ b/data/ablation.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView windowWidth="26880" windowHeight="12975"/>
   </bookViews>
@@ -1436,19 +1436,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>17.86</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.42</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.37</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>15.23</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>17.86</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>18.42</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>17.15</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.37</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1569,19 +1569,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>17.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.91</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.58</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.74</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>14.83</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>17.25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>17.91</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.58</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15.74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1921,19 +1921,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>21.59</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.94</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.78</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>18.65</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>21.59</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>22.17</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20.94</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>19.78</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2054,19 +2054,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>14.62</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.87</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>12.39</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>14.62</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15.13</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13.87</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13.15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2399,19 +2399,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>17.34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.82</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.69</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>14.71</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>17.34</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>17.96</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.82</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15.69</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2532,19 +2532,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>11.28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.63</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.12</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>9.45</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11.28</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11.75</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10.63</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10.12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7593,11 +7593,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="E6" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7942,28 +7942,32 @@
         <v>14</v>
       </c>
       <c r="G9">
-        <v>15.23</v>
+        <v>17.86</v>
       </c>
       <c r="H9">
-        <v>14.83</v>
-      </c>
+        <v>17.25</v>
+      </c>
+      <c r="I9"/>
+      <c r="J9"/>
       <c r="K9" t="s">
         <v>14</v>
       </c>
       <c r="L9">
-        <v>18.65</v>
+        <v>21.59</v>
       </c>
       <c r="M9">
-        <v>12.39</v>
-      </c>
+        <v>14.62</v>
+      </c>
+      <c r="N9"/>
+      <c r="O9"/>
       <c r="P9" t="s">
         <v>14</v>
       </c>
       <c r="Q9">
-        <v>14.71</v>
+        <v>17.34</v>
       </c>
       <c r="R9">
-        <v>9.45</v>
+        <v>11.28</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -7980,28 +7984,32 @@
         <v>15</v>
       </c>
       <c r="G10">
-        <v>17.86</v>
+        <v>18.42</v>
       </c>
       <c r="H10">
-        <v>17.25</v>
-      </c>
+        <v>17.91</v>
+      </c>
+      <c r="I10"/>
+      <c r="J10"/>
       <c r="K10" t="s">
         <v>15</v>
       </c>
       <c r="L10">
-        <v>21.59</v>
+        <v>22.17</v>
       </c>
       <c r="M10">
-        <v>14.62</v>
-      </c>
+        <v>15.13</v>
+      </c>
+      <c r="N10"/>
+      <c r="O10"/>
       <c r="P10" t="s">
         <v>15</v>
       </c>
       <c r="Q10">
-        <v>17.34</v>
+        <v>17.96</v>
       </c>
       <c r="R10">
-        <v>11.28</v>
+        <v>11.75</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -8018,28 +8026,32 @@
         <v>16</v>
       </c>
       <c r="G11">
-        <v>18.42</v>
+        <v>17.15</v>
       </c>
       <c r="H11">
-        <v>17.91</v>
-      </c>
+        <v>16.58</v>
+      </c>
+      <c r="I11"/>
+      <c r="J11"/>
       <c r="K11" t="s">
         <v>16</v>
       </c>
       <c r="L11">
-        <v>22.17</v>
+        <v>20.94</v>
       </c>
       <c r="M11">
-        <v>15.13</v>
-      </c>
+        <v>13.87</v>
+      </c>
+      <c r="N11"/>
+      <c r="O11"/>
       <c r="P11" t="s">
         <v>16</v>
       </c>
       <c r="Q11">
-        <v>17.96</v>
+        <v>16.82</v>
       </c>
       <c r="R11">
-        <v>11.75</v>
+        <v>10.63</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -8056,28 +8068,32 @@
         <v>17</v>
       </c>
       <c r="G12">
-        <v>17.15</v>
+        <v>16.37</v>
       </c>
       <c r="H12">
-        <v>16.58</v>
-      </c>
+        <v>15.74</v>
+      </c>
+      <c r="I12"/>
+      <c r="J12"/>
       <c r="K12" t="s">
         <v>17</v>
       </c>
       <c r="L12">
-        <v>20.94</v>
+        <v>19.78</v>
       </c>
       <c r="M12">
-        <v>13.87</v>
-      </c>
+        <v>13.15</v>
+      </c>
+      <c r="N12"/>
+      <c r="O12"/>
       <c r="P12" t="s">
         <v>17</v>
       </c>
       <c r="Q12">
-        <v>16.82</v>
+        <v>15.69</v>
       </c>
       <c r="R12">
-        <v>10.63</v>
+        <v>10.12</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -8094,28 +8110,32 @@
         <v>18</v>
       </c>
       <c r="G13">
-        <v>16.37</v>
+        <v>15.23</v>
       </c>
       <c r="H13">
-        <v>15.74</v>
-      </c>
+        <v>14.83</v>
+      </c>
+      <c r="I13"/>
+      <c r="J13"/>
       <c r="K13" t="s">
         <v>18</v>
       </c>
       <c r="L13">
-        <v>19.78</v>
+        <v>18.65</v>
       </c>
       <c r="M13">
-        <v>13.15</v>
-      </c>
+        <v>12.39</v>
+      </c>
+      <c r="N13"/>
+      <c r="O13"/>
       <c r="P13" t="s">
         <v>18</v>
       </c>
       <c r="Q13">
-        <v>15.69</v>
+        <v>14.71</v>
       </c>
       <c r="R13">
-        <v>10.12</v>
+        <v>9.45</v>
       </c>
     </row>
     <row r="33" spans="12:14">
@@ -8191,7 +8211,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8208,7 +8228,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
